--- a/Output/summary_sorted/summary_sorted_preliminary_national_aggregates_popgroupagg.xlsx
+++ b/Output/summary_sorted/summary_sorted_preliminary_national_aggregates_popgroupagg.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="830">
   <si>
     <t>governorate</t>
   </si>
@@ -264,27 +264,18 @@
     <t>0.00884955752212389</t>
   </si>
   <si>
-    <t>0.00934579439252336</t>
-  </si>
-  <si>
     <t>0.00952352877079412</t>
   </si>
   <si>
     <t>-0.00570666926505726</t>
   </si>
   <si>
-    <t>-0.00264714315112345</t>
-  </si>
-  <si>
     <t>-0.00650338896109012</t>
   </si>
   <si>
     <t>0.023405784309305</t>
   </si>
   <si>
-    <t>0.0213387319361702</t>
-  </si>
-  <si>
     <t>0.0255504465026783</t>
   </si>
   <si>
@@ -300,826 +291,820 @@
     <t>0.214285714285714</t>
   </si>
   <si>
+    <t>0.433333333333333</t>
+  </si>
+  <si>
+    <t>0.611111111111111</t>
+  </si>
+  <si>
+    <t>0.576271186440678</t>
+  </si>
+  <si>
+    <t>0.509803921568627</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.569767441860465</t>
+  </si>
+  <si>
+    <t>0.533333333333333</t>
+  </si>
+  <si>
+    <t>0.475409836065574</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.377049180327869</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.59375</t>
+  </si>
+  <si>
+    <t>0.666666666666667</t>
+  </si>
+  <si>
+    <t>0.694214876033058</t>
+  </si>
+  <si>
+    <t>0.446280991735537</t>
+  </si>
+  <si>
+    <t>0.610619469026549</t>
+  </si>
+  <si>
+    <t>0.471544715447155</t>
+  </si>
+  <si>
+    <t>0.327102803738318</t>
+  </si>
+  <si>
+    <t>0.465408805031447</t>
+  </si>
+  <si>
+    <t>0.445954968250976</t>
+  </si>
+  <si>
+    <t>0.75609756097561</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.214953271028037</t>
+  </si>
+  <si>
+    <t>0.373913043478261</t>
+  </si>
+  <si>
+    <t>0.396833351494167</t>
+  </si>
+  <si>
+    <t>0.466666666666667</t>
+  </si>
+  <si>
+    <t>0.424242424242424</t>
+  </si>
+  <si>
+    <t>0.37037037037037</t>
+  </si>
+  <si>
+    <t>0.215384615384615</t>
+  </si>
+  <si>
+    <t>0.739583333333333</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.150684931506849</t>
+  </si>
+  <si>
+    <t>0.328767123287671</t>
+  </si>
+  <si>
+    <t>0.172413793103448</t>
+  </si>
+  <si>
+    <t>0.287444127713745</t>
+  </si>
+  <si>
+    <t>0.385650224215247</t>
+  </si>
+  <si>
+    <t>0.140625</t>
+  </si>
+  <si>
+    <t>0.209677419354839</t>
+  </si>
+  <si>
+    <t>0.593220338983051</t>
+  </si>
+  <si>
+    <t>0.12280701754386</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.159044594093148</t>
+  </si>
+  <si>
+    <t>0.736215110001351</t>
+  </si>
+  <si>
+    <t>0.216825555156458</t>
+  </si>
+  <si>
+    <t>0.324955951882648</t>
+  </si>
+  <si>
+    <t>0.108729738658167</t>
+  </si>
+  <si>
+    <t>0.065143318133434</t>
+  </si>
+  <si>
+    <t>0.500966772491654</t>
+  </si>
+  <si>
+    <t>0.469545068855122</t>
+  </si>
+  <si>
+    <t>0.393517566811638</t>
+  </si>
+  <si>
+    <t>0.392929148792165</t>
+  </si>
+  <si>
+    <t>0.481435405054452</t>
+  </si>
+  <si>
+    <t>0.426500682312008</t>
+  </si>
+  <si>
+    <t>0.36936347152856</t>
+  </si>
+  <si>
+    <t>0.343465848167892</t>
+  </si>
+  <si>
+    <t>0.274134456510573</t>
+  </si>
+  <si>
+    <t>0.547860917703765</t>
+  </si>
+  <si>
+    <t>0.491971632556258</t>
+  </si>
+  <si>
+    <t>0.565719300058032</t>
+  </si>
+  <si>
+    <t>0.625033090203657</t>
+  </si>
+  <si>
+    <t>0.371494874023654</t>
+  </si>
+  <si>
+    <t>0.5348331723585</t>
+  </si>
+  <si>
+    <t>0.397071271418459</t>
+  </si>
+  <si>
+    <t>0.103724501453534</t>
+  </si>
+  <si>
+    <t>0.345782567171918</t>
+  </si>
+  <si>
+    <t>0.340998668961587</t>
+  </si>
+  <si>
+    <t>0.677613451019051</t>
+  </si>
+  <si>
+    <t>0.097037321682799</t>
+  </si>
+  <si>
+    <t>0.28785108728692</t>
+  </si>
+  <si>
+    <t>0.160468278864236</t>
+  </si>
+  <si>
+    <t>0.240720426535879</t>
+  </si>
+  <si>
+    <t>0.271886787277507</t>
+  </si>
+  <si>
+    <t>0.359834015645341</t>
+  </si>
+  <si>
+    <t>0.297825414475516</t>
+  </si>
+  <si>
+    <t>0.222270692296976</t>
+  </si>
+  <si>
+    <t>0.113992366216236</t>
+  </si>
+  <si>
+    <t>0.614008908687823</t>
+  </si>
+  <si>
+    <t>0.438210500150221</t>
+  </si>
+  <si>
+    <t>0.0811727211037781</t>
+  </si>
+  <si>
+    <t>0.237428932138445</t>
+  </si>
+  <si>
+    <t>0.0898363458890664</t>
+  </si>
+  <si>
+    <t>0.213635825512557</t>
+  </si>
+  <si>
+    <t>0.340026832573026</t>
+  </si>
+  <si>
+    <t>0.0683472791187648</t>
+  </si>
+  <si>
+    <t>0.123630651560509</t>
+  </si>
+  <si>
+    <t>0.486735097467053</t>
+  </si>
+  <si>
+    <t>0.0504367213609887</t>
+  </si>
+  <si>
+    <t>0.156920764943087</t>
+  </si>
+  <si>
+    <t>0.0831884001719631</t>
+  </si>
+  <si>
+    <t>0.6512014103008</t>
+  </si>
+  <si>
+    <t>0.107258358334617</t>
+  </si>
+  <si>
+    <t>0.575526332758142</t>
+  </si>
+  <si>
+    <t>0.319841689913262</t>
+  </si>
+  <si>
+    <t>0.801523348533232</t>
+  </si>
+  <si>
+    <t>0.721255449730568</t>
+  </si>
+  <si>
+    <t>0.682997304026234</t>
+  </si>
+  <si>
+    <t>0.626090276325617</t>
+  </si>
+  <si>
+    <t>0.607070851207835</t>
+  </si>
+  <si>
+    <t>0.658099478666478</t>
+  </si>
+  <si>
+    <t>0.640165984354659</t>
+  </si>
+  <si>
+    <t>0.581456200602588</t>
+  </si>
+  <si>
+    <t>0.556534151832108</t>
+  </si>
+  <si>
+    <t>0.479963904145164</t>
+  </si>
+  <si>
+    <t>0.752139082296235</t>
+  </si>
+  <si>
+    <t>0.695528367443742</t>
+  </si>
+  <si>
+    <t>0.767614033275301</t>
+  </si>
+  <si>
+    <t>0.763396661862459</t>
+  </si>
+  <si>
+    <t>0.521067109447421</t>
+  </si>
+  <si>
+    <t>0.686405765694597</t>
+  </si>
+  <si>
+    <t>0.54601815947585</t>
+  </si>
+  <si>
+    <t>0.550481106023101</t>
+  </si>
+  <si>
+    <t>0.585035042890975</t>
+  </si>
+  <si>
+    <t>0.550911267540366</t>
+  </si>
+  <si>
+    <t>0.834581670932168</t>
+  </si>
+  <si>
+    <t>0.302962678317201</t>
+  </si>
+  <si>
+    <t>0.43214891271308</t>
+  </si>
+  <si>
+    <t>0.269438263191838</t>
+  </si>
+  <si>
+    <t>0.507105660420643</t>
+  </si>
+  <si>
+    <t>0.521779915710826</t>
+  </si>
+  <si>
+    <t>0.573499317687992</t>
+  </si>
+  <si>
+    <t>0.550659434009333</t>
+  </si>
+  <si>
+    <t>0.518470048443765</t>
+  </si>
+  <si>
+    <t>0.316776864552995</t>
+  </si>
+  <si>
+    <t>0.865157757978844</t>
+  </si>
+  <si>
+    <t>0.601789499849779</t>
+  </si>
+  <si>
+    <t>0.22019714190992</t>
+  </si>
+  <si>
+    <t>0.420105314436897</t>
+  </si>
+  <si>
+    <t>0.25499124031783</t>
+  </si>
+  <si>
+    <t>0.361252429914934</t>
+  </si>
+  <si>
+    <t>0.431273615857467</t>
+  </si>
+  <si>
+    <t>0.212902720881235</t>
+  </si>
+  <si>
+    <t>0.295724187149168</t>
+  </si>
+  <si>
+    <t>0.699705580499048</t>
+  </si>
+  <si>
+    <t>0.195177313726731</t>
+  </si>
+  <si>
+    <t>0.343079235056913</t>
+  </si>
+  <si>
+    <t>0.234900788014332</t>
+  </si>
+  <si>
+    <t>0.821228809701903</t>
+  </si>
+  <si>
+    <t>0.326392751978298</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>0.522617662581638</t>
+  </si>
+  <si>
+    <t>0.738095238095238</t>
+  </si>
+  <si>
     <t>0.566666666666667</t>
   </si>
   <si>
-    <t>0.592592592592593</t>
-  </si>
-  <si>
-    <t>0.525423728813559</t>
-  </si>
-  <si>
-    <t>0.431372549019608</t>
-  </si>
-  <si>
-    <t>0.416666666666667</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.516666666666667</t>
-  </si>
-  <si>
-    <t>0.426229508196721</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.327868852459016</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.5625</t>
+    <t>0.388888888888889</t>
+  </si>
+  <si>
+    <t>0.389830508474576</t>
+  </si>
+  <si>
+    <t>0.450980392156863</t>
+  </si>
+  <si>
+    <t>0.337209302325581</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.508196721311475</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.28125</t>
+  </si>
+  <si>
+    <t>0.316666666666667</t>
+  </si>
+  <si>
+    <t>0.272727272727273</t>
+  </si>
+  <si>
+    <t>0.528925619834711</t>
+  </si>
+  <si>
+    <t>0.345132743362832</t>
+  </si>
+  <si>
+    <t>0.495934959349594</t>
+  </si>
+  <si>
+    <t>0.607476635514019</t>
+  </si>
+  <si>
+    <t>0.515723270440252</t>
+  </si>
+  <si>
+    <t>0.535263844232108</t>
+  </si>
+  <si>
+    <t>0.219512195121951</t>
+  </si>
+  <si>
+    <t>0.642857142857143</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.654205607476636</t>
+  </si>
+  <si>
+    <t>0.478260869565217</t>
+  </si>
+  <si>
+    <t>0.47936077448551</t>
+  </si>
+  <si>
+    <t>0.444444444444444</t>
+  </si>
+  <si>
+    <t>0.615384615384615</t>
+  </si>
+  <si>
+    <t>0.21875</t>
+  </si>
+  <si>
+    <t>0.422857142857143</t>
+  </si>
+  <si>
+    <t>0.753424657534246</t>
+  </si>
+  <si>
+    <t>0.602739726027397</t>
+  </si>
+  <si>
+    <t>0.724137931034483</t>
+  </si>
+  <si>
+    <t>0.560034498397329</t>
+  </si>
+  <si>
+    <t>0.533632286995516</t>
+  </si>
+  <si>
+    <t>0.703125</t>
+  </si>
+  <si>
+    <t>0.693548387096774</t>
+  </si>
+  <si>
+    <t>0.372881355932203</t>
+  </si>
+  <si>
+    <t>0.754385964912281</t>
   </si>
   <si>
     <t>0.583333333333333</t>
   </si>
   <si>
-    <t>0.603305785123967</t>
-  </si>
-  <si>
-    <t>0.388429752066116</t>
-  </si>
-  <si>
-    <t>0.530973451327434</t>
-  </si>
-  <si>
-    <t>0.398373983739837</t>
-  </si>
-  <si>
-    <t>0.542056074766355</t>
-  </si>
-  <si>
-    <t>0.584905660377358</t>
-  </si>
-  <si>
-    <t>0.445954968250976</t>
-  </si>
-  <si>
-    <t>0.634146341463415</t>
-  </si>
-  <si>
-    <t>0.271428571428571</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.177570093457944</t>
-  </si>
-  <si>
-    <t>0.321739130434783</t>
-  </si>
-  <si>
-    <t>0.355554900465186</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.353535353535353</t>
-  </si>
-  <si>
-    <t>0.314814814814815</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.323076923076923</t>
-  </si>
-  <si>
-    <t>0.6875</t>
-  </si>
-  <si>
-    <t>0.565714285714286</t>
-  </si>
-  <si>
-    <t>0.150684931506849</t>
-  </si>
-  <si>
-    <t>0.356164383561644</t>
-  </si>
-  <si>
-    <t>0.241379310344828</t>
-  </si>
-  <si>
-    <t>0.258113094273567</t>
-  </si>
-  <si>
-    <t>0.331838565022422</t>
-  </si>
-  <si>
-    <t>0.140625</t>
-  </si>
-  <si>
-    <t>0.258064516129032</t>
-  </si>
-  <si>
-    <t>0.593220338983051</t>
-  </si>
-  <si>
-    <t>0.263157894736842</t>
-  </si>
-  <si>
-    <t>0.333333333333333</t>
-  </si>
-  <si>
-    <t>0.339266542590448</t>
-  </si>
-  <si>
-    <t>0.680260739395577</t>
-  </si>
-  <si>
-    <t>0.216825555156458</t>
-  </si>
-  <si>
-    <t>0.324955951882648</t>
-  </si>
-  <si>
-    <t>0.108729738658167</t>
+    <t>0.72659769212443</t>
+  </si>
+  <si>
+    <t>0.255791408483538</t>
+  </si>
+  <si>
+    <t>0.699887843418971</t>
+  </si>
+  <si>
+    <t>0.413950743664661</t>
+  </si>
+  <si>
+    <t>0.624990242018799</t>
   </si>
   <si>
     <t>0.198476651466767</t>
   </si>
   <si>
-    <t>0.481577534189251</t>
-  </si>
-  <si>
-    <t>0.417573490035559</t>
-  </si>
-  <si>
-    <t>0.316164607245397</t>
-  </si>
-  <si>
-    <t>0.31109338363501</t>
-  </si>
-  <si>
-    <t>0.410795287415185</t>
-  </si>
-  <si>
-    <t>0.409655315797523</t>
-  </si>
-  <si>
-    <t>0.321216646696451</t>
-  </si>
-  <si>
-    <t>0.247860917703765</t>
-  </si>
-  <si>
-    <t>0.22818410274642</t>
-  </si>
-  <si>
-    <t>0.547860917703765</t>
-  </si>
-  <si>
-    <t>0.459696648315533</t>
-  </si>
-  <si>
-    <t>0.477760050301676</t>
-  </si>
-  <si>
-    <t>0.529848764063973</t>
-  </si>
-  <si>
-    <t>0.315104849200783</t>
-  </si>
-  <si>
-    <t>0.453410672161945</t>
-  </si>
-  <si>
-    <t>0.325336691647715</t>
-  </si>
-  <si>
-    <t>0.360826100319208</t>
-  </si>
-  <si>
-    <t>0.48752428341586</t>
-  </si>
-  <si>
-    <t>0.340998668961587</t>
-  </si>
-  <si>
-    <t>0.546115836283116</t>
-  </si>
-  <si>
-    <t>0.152212996882101</t>
-  </si>
-  <si>
-    <t>0.253253253104911</t>
-  </si>
-  <si>
-    <t>0.125061574271693</t>
-  </si>
-  <si>
-    <t>0.175027481475036</t>
-  </si>
-  <si>
-    <t>0.242267855811275</t>
-  </si>
-  <si>
-    <t>0.343465848167892</t>
-  </si>
-  <si>
-    <t>0.23278915502433</t>
-  </si>
-  <si>
-    <t>0.180797209705761</t>
+    <t>0.278744550269431</t>
+  </si>
+  <si>
+    <t>0.284494606898012</t>
+  </si>
+  <si>
+    <t>0.335231987955081</t>
+  </si>
+  <si>
+    <t>0.25286499625743</t>
   </si>
   <si>
     <t>0.295092419286137</t>
   </si>
   <si>
-    <t>0.193500554499602</t>
-  </si>
-  <si>
-    <t>0.576164334036438</t>
-  </si>
-  <si>
-    <t>0.491084439772915</t>
-  </si>
-  <si>
-    <t>0.0811727211037781</t>
-  </si>
-  <si>
-    <t>0.263056951518017</t>
-  </si>
-  <si>
-    <t>0.147832024733914</t>
-  </si>
-  <si>
-    <t>0.204323883628374</t>
-  </si>
-  <si>
-    <t>0.290005322192261</t>
-  </si>
-  <si>
-    <t>0.0683472791187648</t>
-  </si>
-  <si>
-    <t>0.165572605171945</t>
-  </si>
-  <si>
-    <t>0.486735097467053</t>
-  </si>
-  <si>
-    <t>0.166062953646826</t>
-  </si>
-  <si>
-    <t>0.232001497094217</t>
-  </si>
-  <si>
-    <t>0.253484239052013</t>
-  </si>
-  <si>
-    <t>0.460551824340694</t>
-  </si>
-  <si>
-    <t>0.581378742002895</t>
-  </si>
-  <si>
-    <t>0.107258358334617</t>
-  </si>
-  <si>
-    <t>0.575526332758142</t>
-  </si>
-  <si>
-    <t>0.319841689913262</t>
+    <t>0.443465848167892</t>
+  </si>
+  <si>
+    <t>0.402036144178584</t>
+  </si>
+  <si>
+    <t>0.201867943923348</t>
+  </si>
+  <si>
+    <t>0.188076550052396</t>
+  </si>
+  <si>
+    <t>0.21705304515306</t>
+  </si>
+  <si>
+    <t>0.20585446321999</t>
+  </si>
+  <si>
+    <t>0.453830083682213</t>
+  </si>
+  <si>
+    <t>0.271242352249442</t>
+  </si>
+  <si>
+    <t>0.421343084113252</t>
+  </si>
+  <si>
+    <t>0.413570348058878</t>
+  </si>
+  <si>
+    <t>0.397390569327174</t>
+  </si>
+  <si>
+    <t>0.441626369617</t>
+  </si>
+  <si>
+    <t>0.143864250167371</t>
+  </si>
+  <si>
+    <t>0.536099546868935</t>
+  </si>
+  <si>
+    <t>0.428379244512537</t>
+  </si>
+  <si>
+    <t>0.586890863085642</t>
+  </si>
+  <si>
+    <t>0.424593929179133</t>
+  </si>
+  <si>
+    <t>0.382681595286805</t>
+  </si>
+  <si>
+    <t>0.27879063182883</t>
+  </si>
+  <si>
+    <t>0.37965549800219</t>
+  </si>
+  <si>
+    <t>0.476335403968782</t>
+  </si>
+  <si>
+    <t>0.0971331932978498</t>
+  </si>
+  <si>
+    <t>0.331765762045981</t>
+  </si>
+  <si>
+    <t>0.66967433104852</t>
+  </si>
+  <si>
+    <t>0.507597330296898</t>
+  </si>
+  <si>
+    <t>0.626430977833487</t>
+  </si>
+  <si>
+    <t>0.49049603589366</t>
+  </si>
+  <si>
+    <t>0.474154775703667</t>
+  </si>
+  <si>
+    <t>0.608133464597232</t>
+  </si>
+  <si>
+    <t>0.596099726665095</t>
+  </si>
+  <si>
+    <t>0.268057053827691</t>
+  </si>
+  <si>
+    <t>0.65947321127134</t>
+  </si>
+  <si>
+    <t>0.477357962337626</t>
+  </si>
+  <si>
+    <t>0.643859512517553</t>
+  </si>
+  <si>
+    <t>0.167219187250336</t>
+  </si>
+  <si>
+    <t>0.6072814155767</t>
+  </si>
+  <si>
+    <t>0.631284581498616</t>
+  </si>
+  <si>
+    <t>0.851200234171677</t>
   </si>
   <si>
     <t>0.934856681866566</t>
   </si>
   <si>
-    <t>0.703607650995934</t>
-  </si>
-  <si>
-    <t>0.63327396759156</t>
-  </si>
-  <si>
-    <t>0.546580490793818</t>
-  </si>
-  <si>
-    <t>0.522239949698324</t>
-  </si>
-  <si>
-    <t>0.589204712584815</t>
-  </si>
-  <si>
-    <t>0.62367801753581</t>
-  </si>
-  <si>
-    <t>0.531242369696991</t>
-  </si>
-  <si>
-    <t>0.452139082296235</t>
-  </si>
-  <si>
-    <t>0.427553602171613</t>
-  </si>
-  <si>
-    <t>0.752139082296235</t>
-  </si>
-  <si>
-    <t>0.665303351684467</t>
-  </si>
-  <si>
-    <t>0.68890661636499</t>
-  </si>
-  <si>
-    <t>0.676762806183961</t>
-  </si>
-  <si>
-    <t>0.461754654931449</t>
-  </si>
-  <si>
-    <t>0.608536230492922</t>
-  </si>
-  <si>
-    <t>0.47141127583196</t>
-  </si>
-  <si>
-    <t>0.723286049213503</t>
-  </si>
-  <si>
-    <t>0.682287037338857</t>
-  </si>
-  <si>
-    <t>0.550911267540366</t>
-  </si>
-  <si>
-    <t>0.722176846643713</t>
-  </si>
-  <si>
-    <t>0.390644145975041</t>
-  </si>
-  <si>
-    <t>0.386746746895089</t>
-  </si>
-  <si>
-    <t>0.230078612644195</t>
-  </si>
-  <si>
-    <t>0.468450779394529</t>
-  </si>
-  <si>
-    <t>0.468841945119098</t>
-  </si>
-  <si>
-    <t>0.556534151832108</t>
-  </si>
-  <si>
-    <t>0.474281552046377</t>
-  </si>
-  <si>
-    <t>0.448832419923868</t>
-  </si>
-  <si>
-    <t>0.504907580713863</t>
-  </si>
-  <si>
-    <t>0.452653291654244</t>
-  </si>
-  <si>
-    <t>0.798835665963562</t>
-  </si>
-  <si>
-    <t>0.640344131655657</t>
-  </si>
-  <si>
-    <t>0.22019714190992</t>
-  </si>
-  <si>
-    <t>0.449271815605271</t>
-  </si>
-  <si>
-    <t>0.334926595955741</t>
-  </si>
-  <si>
-    <t>0.31190230491876</t>
-  </si>
-  <si>
-    <t>0.373671807852583</t>
-  </si>
-  <si>
-    <t>0.212902720881235</t>
-  </si>
-  <si>
-    <t>0.35055642708612</t>
-  </si>
-  <si>
-    <t>0.699705580499048</t>
-  </si>
-  <si>
-    <t>0.360252835826858</t>
-  </si>
-  <si>
-    <t>0.43466516957245</t>
-  </si>
-  <si>
-    <t>0.425048846128883</t>
-  </si>
-  <si>
-    <t>0.672781508992639</t>
-  </si>
-  <si>
-    <t>0.779142736788259</t>
-  </si>
-  <si>
-    <t>0.326392751978298</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>0.513570597548983</t>
-  </si>
-  <si>
-    <t>0.738095238095238</t>
-  </si>
-  <si>
-    <t>0.433333333333333</t>
-  </si>
-  <si>
-    <t>0.407407407407407</t>
-  </si>
-  <si>
-    <t>0.423728813559322</t>
-  </si>
-  <si>
-    <t>0.529411764705882</t>
-  </si>
-  <si>
-    <t>0.406976744186047</t>
-  </si>
-  <si>
-    <t>0.383333333333333</t>
-  </si>
-  <si>
-    <t>0.524590163934426</t>
-  </si>
-  <si>
-    <t>0.557377049180328</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.3125</t>
-  </si>
-  <si>
-    <t>0.355371900826446</t>
-  </si>
-  <si>
-    <t>0.578512396694215</t>
-  </si>
-  <si>
-    <t>0.424778761061947</t>
-  </si>
-  <si>
-    <t>0.560975609756098</t>
-  </si>
-  <si>
-    <t>0.383177570093458</t>
-  </si>
-  <si>
-    <t>0.39622641509434</t>
-  </si>
-  <si>
-    <t>0.52587325047365</t>
-  </si>
-  <si>
-    <t>0.341463414634146</t>
-  </si>
-  <si>
-    <t>0.571428571428571</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.672897196261682</t>
-  </si>
-  <si>
-    <t>0.51304347826087</t>
-  </si>
-  <si>
-    <t>0.501592167972902</t>
-  </si>
-  <si>
-    <t>0.515151515151515</t>
-  </si>
-  <si>
-    <t>0.537037037037037</t>
-  </si>
-  <si>
-    <t>0.523076923076923</t>
-  </si>
-  <si>
-    <t>0.270833333333333</t>
-  </si>
-  <si>
-    <t>0.377142857142857</t>
-  </si>
-  <si>
-    <t>0.753424657534246</t>
-  </si>
-  <si>
-    <t>0.575342465753425</t>
-  </si>
-  <si>
-    <t>0.655172413793103</t>
-  </si>
-  <si>
-    <t>0.583499325149471</t>
-  </si>
-  <si>
-    <t>0.57847533632287</t>
-  </si>
-  <si>
-    <t>0.640625</t>
-  </si>
-  <si>
-    <t>0.645161290322581</t>
-  </si>
-  <si>
-    <t>0.355932203389831</t>
-  </si>
-  <si>
-    <t>0.649122807017544</t>
-  </si>
-  <si>
-    <t>0.588730452435434</t>
-  </si>
-  <si>
-    <t>0.303752297574202</t>
-  </si>
-  <si>
-    <t>0.666573202849143</t>
-  </si>
-  <si>
-    <t>0.411313738636336</t>
-  </si>
-  <si>
-    <t>0.624990242018799</t>
-  </si>
-  <si>
-    <t>0.065143318133434</t>
-  </si>
-  <si>
-    <t>0.296392349004066</t>
-  </si>
-  <si>
-    <t>0.317002695973766</t>
-  </si>
-  <si>
-    <t>0.413304449862249</t>
-  </si>
-  <si>
-    <t>0.319329462178747</t>
-  </si>
-  <si>
-    <t>0.279217979204724</t>
-  </si>
-  <si>
-    <t>0.418543799397412</t>
-  </si>
-  <si>
-    <t>0.451903602743984</t>
-  </si>
-  <si>
-    <t>0.201867943923348</t>
-  </si>
-  <si>
-    <t>0.216445360996668</t>
-  </si>
-  <si>
-    <t>0.283504358638713</t>
-  </si>
-  <si>
-    <t>0.504224029056805</t>
-  </si>
-  <si>
-    <t>0.347951190708803</t>
-  </si>
-  <si>
-    <t>0.486938034266982</t>
-  </si>
-  <si>
-    <t>0.230150948209244</t>
-  </si>
-  <si>
-    <t>0.303651595627528</t>
-  </si>
-  <si>
-    <t>0.434767331875515</t>
-  </si>
-  <si>
-    <t>0.254797806153592</t>
-  </si>
-  <si>
-    <t>0.497360344274217</t>
-  </si>
-  <si>
-    <t>0.441050056981307</t>
-  </si>
-  <si>
-    <t>0.595680418644151</t>
-  </si>
-  <si>
-    <t>0.441857236447099</t>
-  </si>
-  <si>
-    <t>0.409246846524796</t>
-  </si>
-  <si>
-    <t>0.353157621421875</t>
-  </si>
-  <si>
-    <t>0.435364581130269</t>
-  </si>
-  <si>
-    <t>0.398294316476159</t>
-  </si>
-  <si>
-    <t>0.167346740923542</t>
-  </si>
-  <si>
-    <t>0.296584427031818</t>
-  </si>
-  <si>
-    <t>0.66967433104852</t>
-  </si>
-  <si>
-    <t>0.47923563902348</t>
-  </si>
-  <si>
-    <t>0.551264738033788</t>
-  </si>
-  <si>
-    <t>0.524460278073956</t>
-  </si>
-  <si>
-    <t>0.526323209580334</t>
-  </si>
-  <si>
-    <t>0.540864711485295</t>
-  </si>
-  <si>
-    <t>0.544025195232076</t>
-  </si>
-  <si>
-    <t>0.252143228408456</t>
-  </si>
-  <si>
-    <t>0.543892172837169</t>
-  </si>
-  <si>
-    <t>0.392521357167854</t>
-  </si>
-  <si>
-    <t>0.533666185693735</t>
-  </si>
-  <si>
-    <t>0.205719468532798</t>
-  </si>
-  <si>
-    <t>0.569602223435327</t>
-  </si>
-  <si>
-    <t>0.61582745646163</t>
-  </si>
-  <si>
-    <t>0.851200234171677</t>
-  </si>
-  <si>
-    <t>0.801523348533232</t>
-  </si>
-  <si>
-    <t>0.518422465810749</t>
-  </si>
-  <si>
-    <t>0.530454931144878</t>
-  </si>
-  <si>
-    <t>0.645519079549516</t>
-  </si>
-  <si>
-    <t>0.494624026193346</t>
-  </si>
-  <si>
-    <t>0.487448687461943</t>
-  </si>
-  <si>
-    <t>0.63063652847144</t>
-  </si>
-  <si>
-    <t>0.662850495616672</t>
+    <t>0.499033227508346</t>
+  </si>
+  <si>
+    <t>0.49516641005114</t>
+  </si>
+  <si>
+    <t>0.566728796358645</t>
+  </si>
+  <si>
+    <t>0.421553608393732</t>
+  </si>
+  <si>
+    <t>0.504907580713862</t>
+  </si>
+  <si>
+    <t>0.656534151832108</t>
+  </si>
+  <si>
+    <t>0.614357298444367</t>
   </si>
   <si>
     <t>0.398132056076652</t>
   </si>
   <si>
-    <t>0.408554639003332</t>
-  </si>
-  <si>
-    <t>0.42723944301418</t>
-  </si>
-  <si>
-    <t>0.652800764331625</t>
-  </si>
-  <si>
-    <t>0.501606331415091</t>
-  </si>
-  <si>
-    <t>0.635013185245213</t>
-  </si>
-  <si>
-    <t>0.536204191977671</t>
-  </si>
-  <si>
-    <t>0.488801234561151</t>
-  </si>
-  <si>
-    <t>0.616979169071785</t>
-  </si>
-  <si>
-    <t>0.428129023114701</t>
-  </si>
-  <si>
-    <t>0.645496798582925</t>
-  </si>
-  <si>
-    <t>0.538949943018693</t>
-  </si>
-  <si>
-    <t>0.750113973879213</t>
-  </si>
-  <si>
-    <t>0.58422972007464</t>
-  </si>
-  <si>
-    <t>0.593937489421007</t>
-  </si>
-  <si>
-    <t>0.677145408881155</t>
-  </si>
-  <si>
-    <t>0.638709492943805</t>
-  </si>
-  <si>
-    <t>0.647859529677687</t>
-  </si>
-  <si>
-    <t>0.374319925743124</t>
-  </si>
-  <si>
-    <t>0.457701287253896</t>
+    <t>0.374423449947604</t>
+  </si>
+  <si>
+    <t>0.416280288180274</t>
+  </si>
+  <si>
+    <t>0.339600082234556</t>
+  </si>
+  <si>
+    <t>0.604021155987208</t>
+  </si>
+  <si>
+    <t>0.419023134476222</t>
+  </si>
+  <si>
+    <t>0.570526834585935</t>
+  </si>
+  <si>
+    <t>0.801382922969159</t>
+  </si>
+  <si>
+    <t>0.634055971553329</t>
+  </si>
+  <si>
+    <t>0.628901318847216</t>
+  </si>
+  <si>
+    <t>0.295160140076532</t>
+  </si>
+  <si>
+    <t>0.74961473884535</t>
+  </si>
+  <si>
+    <t>0.551620755487463</t>
+  </si>
+  <si>
+    <t>0.72152035186763</t>
+  </si>
+  <si>
+    <t>0.531927809951302</t>
+  </si>
+  <si>
+    <t>0.576039953684215</t>
+  </si>
+  <si>
+    <t>0.610098257060058</t>
+  </si>
+  <si>
+    <t>0.620344501997811</t>
+  </si>
+  <si>
+    <t>0.754433826800448</t>
+  </si>
+  <si>
+    <t>0.34036680670215</t>
+  </si>
+  <si>
+    <t>0.513948523668305</t>
   </si>
   <si>
     <t>0.837174984019973</t>
   </si>
   <si>
-    <t>0.671449292483369</t>
-  </si>
-  <si>
-    <t>0.759080089552419</t>
-  </si>
-  <si>
-    <t>0.642538372224987</t>
-  </si>
-  <si>
-    <t>0.630627463065406</t>
-  </si>
-  <si>
-    <t>0.740385288514705</t>
-  </si>
-  <si>
-    <t>0.746297385413086</t>
-  </si>
-  <si>
-    <t>0.459721178371205</t>
-  </si>
-  <si>
-    <t>0.754353441197919</t>
-  </si>
-  <si>
-    <t>0.607478642832146</t>
-  </si>
-  <si>
-    <t>0.643794719177133</t>
-  </si>
-  <si>
-    <t>0.401785126615606</t>
-  </si>
-  <si>
-    <t>0.763544182262958</t>
+    <t>0.697882121757896</t>
+  </si>
+  <si>
+    <t>0.821844884235479</t>
+  </si>
+  <si>
+    <t>0.629572960900998</t>
+  </si>
+  <si>
+    <t>0.593109798287364</t>
+  </si>
+  <si>
+    <t>0.798116535402768</t>
+  </si>
+  <si>
+    <t>0.790997047528453</t>
+  </si>
+  <si>
+    <t>0.477705658036715</t>
+  </si>
+  <si>
+    <t>0.849298718553221</t>
+  </si>
+  <si>
+    <t>0.689308704329041</t>
+  </si>
+  <si>
+    <t>0.809335871731306</t>
+  </si>
+  <si>
+    <t>0.344363629716741</t>
+  </si>
+  <si>
+    <t>0.792494271261242</t>
   </si>
   <si>
     <t>4</t>
@@ -1128,49 +1113,49 @@
     <t>Extreme</t>
   </si>
   <si>
-    <t>0.0361882601306216</t>
+    <t>0.0271411950979662</t>
   </si>
   <si>
     <t>0.0476190476190476</t>
   </si>
   <si>
-    <t>0.0508474576271186</t>
+    <t>0.0338983050847458</t>
   </si>
   <si>
     <t>0.0392156862745098</t>
   </si>
   <si>
-    <t>0.0666666666666667</t>
+    <t>0.0333333333333333</t>
   </si>
   <si>
     <t>0.0116279069767442</t>
   </si>
   <si>
+    <t>0.0166666666666667</t>
+  </si>
+  <si>
+    <t>0.0163934426229508</t>
+  </si>
+  <si>
+    <t>0.0983606557377049</t>
+  </si>
+  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>0.0163934426229508</t>
-  </si>
-  <si>
-    <t>0.0983606557377049</t>
-  </si>
-  <si>
     <t>0.125</t>
   </si>
   <si>
-    <t>0.0166666666666667</t>
-  </si>
-  <si>
-    <t>0.0330578512396694</t>
-  </si>
-  <si>
     <t>0.0247933884297521</t>
   </si>
   <si>
+    <t>0.0165289256198347</t>
+  </si>
+  <si>
     <t>0.0265486725663717</t>
   </si>
   <si>
-    <t>0.032520325203252</t>
+    <t>0.024390243902439</t>
   </si>
   <si>
     <t>0.0654205607476635</t>
@@ -1179,378 +1164,360 @@
     <t>0.0188679245283019</t>
   </si>
   <si>
-    <t>0.0187811875169161</t>
-  </si>
-  <si>
-    <t>0.024390243902439</t>
+    <t>0.00939059375845803</t>
   </si>
   <si>
     <t>0.114285714285714</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.14018691588785</t>
-  </si>
-  <si>
-    <t>0.0869565217391304</t>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.121495327102804</t>
+  </si>
+  <si>
+    <t>0.0695652173913043</t>
+  </si>
+  <si>
+    <t>0.0476176438539706</t>
+  </si>
+  <si>
+    <t>0.0101010101010101</t>
+  </si>
+  <si>
+    <t>0.12037037037037</t>
+  </si>
+  <si>
+    <t>0.161538461538462</t>
+  </si>
+  <si>
+    <t>0.0416666666666667</t>
+  </si>
+  <si>
+    <t>0.0342857142857143</t>
+  </si>
+  <si>
+    <t>0.0684931506849315</t>
+  </si>
+  <si>
+    <t>0.0410958904109589</t>
+  </si>
+  <si>
+    <t>0.0862068965517241</t>
+  </si>
+  <si>
+    <t>0.111457927072677</t>
+  </si>
+  <si>
+    <t>0.0538116591928251</t>
+  </si>
+  <si>
+    <t>0.15625</t>
+  </si>
+  <si>
+    <t>0.0645161290322581</t>
+  </si>
+  <si>
+    <t>0.116666666666667</t>
+  </si>
+  <si>
+    <t>0.0804739467357788</t>
+  </si>
+  <si>
+    <t>0.0833333333333333</t>
+  </si>
+  <si>
+    <t>0.00799348151511057</t>
+  </si>
+  <si>
+    <t>0.0832866014245713</t>
+  </si>
+  <si>
+    <t>-0.0031725974142536</t>
+  </si>
+  <si>
+    <t>-0.00716442943160925</t>
+  </si>
+  <si>
+    <t>-0.00518701510127181</t>
+  </si>
+  <si>
+    <t>-0.00593715838690321</t>
+  </si>
+  <si>
+    <t>-0.005106278652958</t>
+  </si>
+  <si>
+    <t>-0.00749829798780781</t>
+  </si>
+  <si>
+    <t>-0.0107475604491912</t>
+  </si>
+  <si>
+    <t>-0.0105713709336307</t>
+  </si>
+  <si>
+    <t>0.0351225625044597</t>
+  </si>
+  <si>
+    <t>0.0033288979786166</t>
+  </si>
+  <si>
+    <t>0.0564644322103553</t>
+  </si>
+  <si>
+    <t>0.0014452158663478</t>
+  </si>
+  <si>
+    <t>-0.00265224842527363</t>
+  </si>
+  <si>
+    <t>0.00156267047942612</t>
+  </si>
+  <si>
+    <t>0.00137677885775403</t>
+  </si>
+  <si>
+    <t>0.00429603324486438</t>
+  </si>
+  <si>
+    <t>0.00154996160208355</t>
+  </si>
+  <si>
+    <t>-0.00291495425380833</t>
+  </si>
+  <si>
+    <t>-0.00380208064366168</t>
+  </si>
+  <si>
+    <t>0.0538518641177936</t>
+  </si>
+  <si>
+    <t>0.0653342789267643</t>
+  </si>
+  <si>
+    <t>0.0765987104557728</t>
+  </si>
+  <si>
+    <t>0.010678424770864</t>
+  </si>
+  <si>
+    <t>0.0209148446988055</t>
+  </si>
+  <si>
+    <t>-0.00510627865295797</t>
+  </si>
+  <si>
+    <t>0.00385575194768245</t>
+  </si>
+  <si>
+    <t>0.0549530035305845</t>
+  </si>
+  <si>
+    <t>0.00909567068863984</t>
+  </si>
+  <si>
+    <t>0.00489567277977426</t>
+  </si>
+  <si>
+    <t>0.00660407990861991</t>
+  </si>
+  <si>
+    <t>0.0194127194449209</t>
+  </si>
+  <si>
+    <t>0.00249845997647133</t>
+  </si>
+  <si>
+    <t>0.024849945387898</t>
+  </si>
+  <si>
+    <t>0.0637424548693038</t>
+  </si>
+  <si>
+    <t>0.0335970994477384</t>
+  </si>
+  <si>
+    <t>0.0807583826270463</t>
+  </si>
+  <si>
+    <t>0.0125872631609779</t>
+  </si>
+  <si>
+    <t>-0.00533024014825716</t>
+  </si>
+  <si>
+    <t>0.0476605045848975</t>
+  </si>
+  <si>
+    <t>0.0358537359758482</t>
+  </si>
+  <si>
+    <t>0.0241476934266066</t>
+  </si>
+  <si>
+    <t>-0.00438908774327712</t>
+  </si>
+  <si>
+    <t>0.0418025740619633</t>
+  </si>
+  <si>
+    <t>0.0574549876101859</t>
+  </si>
+  <si>
+    <t>0.102402524669704</t>
+  </si>
+  <si>
+    <t>0.0729836252707633</t>
+  </si>
+  <si>
+    <t>0.0843685309359228</t>
+  </si>
+  <si>
+    <t>0.0717729453196246</t>
+  </si>
+  <si>
+    <t>0.0307541119412962</t>
+  </si>
+  <si>
+    <t>0.0440808937825245</t>
+  </si>
+  <si>
+    <t>0.0433582561795323</t>
+  </si>
+  <si>
+    <t>0.16159874897095</t>
+  </si>
+  <si>
+    <t>0.0966711020213834</t>
+  </si>
+  <si>
+    <t>0.193535567789645</t>
+  </si>
+  <si>
+    <t>0.0481415609931563</t>
+  </si>
+  <si>
+    <t>0.035710099664943</t>
+  </si>
+  <si>
+    <t>0.0515346746533172</t>
+  </si>
+  <si>
+    <t>0.047403708947124</t>
+  </si>
+  <si>
+    <t>0.126545088250463</t>
+  </si>
+  <si>
+    <t>0.0361858874545202</t>
+  </si>
+  <si>
+    <t>0.0216961417707244</t>
+  </si>
+  <si>
+    <t>0.0525825684485397</t>
+  </si>
+  <si>
+    <t>0.174719564453635</t>
+  </si>
+  <si>
+    <t>0.134665721073236</t>
+  </si>
+  <si>
+    <t>0.166391943749835</t>
+  </si>
+  <si>
+    <t>0.128452010011745</t>
+  </si>
+  <si>
+    <t>0.0743204430091357</t>
+  </si>
+  <si>
+    <t>0.0163462682543377</t>
+  </si>
+  <si>
+    <t>0.185787737210156</t>
+  </si>
+  <si>
+    <t>0.313981252388283</t>
+  </si>
+  <si>
+    <t>0.0784376605535591</t>
+  </si>
+  <si>
+    <t>0.0619673486628087</t>
+  </si>
+  <si>
+    <t>0.117573581924942</t>
+  </si>
+  <si>
+    <t>0.0796933208454464</t>
+  </si>
+  <si>
+    <t>0.14756384771555</t>
+  </si>
+  <si>
+    <t>0.15917339927605</t>
+  </si>
+  <si>
+    <t>0.0740262189379118</t>
+  </si>
+  <si>
+    <t>0.231741617372954</t>
+  </si>
+  <si>
+    <t>0.116444994903538</t>
+  </si>
+  <si>
+    <t>0.0731268503177487</t>
+  </si>
+  <si>
+    <t>0.185672828748436</t>
+  </si>
+  <si>
+    <t>0.125094157495709</t>
+  </si>
+  <si>
+    <t>0.14251897324006</t>
+  </si>
+  <si>
+    <t>0.0203760507734982</t>
+  </si>
+  <si>
+    <t>0.124770628787179</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Catastrophic</t>
+  </si>
+  <si>
+    <t>0.0813953488372093</t>
+  </si>
+  <si>
+    <t>0.0327868852459016</t>
+  </si>
+  <si>
+    <t>0.00826446280991736</t>
+  </si>
+  <si>
+    <t>0.00813008130081301</t>
+  </si>
+  <si>
+    <t>0.0428571428571429</t>
+  </si>
+  <si>
+    <t>0.00934579439252337</t>
+  </si>
+  <si>
+    <t>0.0782608695652174</t>
   </si>
   <si>
     <t>0.0666647013955588</t>
   </si>
   <si>
-    <t>0.0333333333333333</t>
-  </si>
-  <si>
-    <t>0.0101010101010101</t>
-  </si>
-  <si>
-    <t>0.138888888888889</t>
-  </si>
-  <si>
-    <t>0.146153846153846</t>
-  </si>
-  <si>
-    <t>0.0416666666666667</t>
-  </si>
-  <si>
-    <t>0.0342857142857143</t>
-  </si>
-  <si>
-    <t>0.0684931506849315</t>
-  </si>
-  <si>
-    <t>0.0410958904109589</t>
-  </si>
-  <si>
-    <t>0.0862068965517241</t>
-  </si>
-  <si>
-    <t>0.117324133760712</t>
-  </si>
-  <si>
-    <t>0.062780269058296</t>
-  </si>
-  <si>
-    <t>0.21875</t>
-  </si>
-  <si>
-    <t>0.0645161290322581</t>
-  </si>
-  <si>
-    <t>0.087719298245614</t>
-  </si>
-  <si>
-    <t>0.116666666666667</t>
-  </si>
-  <si>
-    <t>0.0381192379274742</t>
-  </si>
-  <si>
-    <t>0.0833333333333333</t>
-  </si>
-  <si>
-    <t>0.0159869630302211</t>
-  </si>
-  <si>
-    <t>0.1166012419944</t>
-  </si>
-  <si>
-    <t>-0.0100442337617496</t>
-  </si>
-  <si>
-    <t>-0.00716442943160925</t>
-  </si>
-  <si>
-    <t>0.00339967851364522</t>
-  </si>
-  <si>
-    <t>-0.00593715838690321</t>
-  </si>
-  <si>
-    <t>0.013250341156004</t>
-  </si>
-  <si>
-    <t>-0.00749829798780781</t>
-  </si>
-  <si>
-    <t>0.0033288979786166</t>
-  </si>
-  <si>
-    <t>-0.0105713709336307</t>
-  </si>
-  <si>
-    <t>0.0351225625044597</t>
-  </si>
-  <si>
-    <t>0.0564644322103553</t>
-  </si>
-  <si>
-    <t>-0.0107475604491912</t>
-  </si>
-  <si>
-    <t>0.00621218478385945</t>
-  </si>
-  <si>
-    <t>0.00140025820180762</t>
-  </si>
-  <si>
-    <t>0.00156267047942612</t>
-  </si>
-  <si>
-    <t>0.00605761995181688</t>
-  </si>
-  <si>
-    <t>0.00429603324486438</t>
-  </si>
-  <si>
-    <t>0.00154996160208355</t>
-  </si>
-  <si>
-    <t>0.00108765935953603</t>
-  </si>
-  <si>
-    <t>-0.00380208064366168</t>
-  </si>
-  <si>
-    <t>0.0538518641177936</t>
-  </si>
-  <si>
-    <t>0.0884685445558284</t>
-  </si>
-  <si>
-    <t>0.085580795401926</t>
-  </si>
-  <si>
-    <t>0.0344782291411794</t>
-  </si>
-  <si>
-    <t>0.0313945492461247</t>
-  </si>
-  <si>
-    <t>-0.00510627865295797</t>
-  </si>
-  <si>
-    <t>0.00385575194768247</t>
-  </si>
-  <si>
-    <t>0.0612587040580434</t>
-  </si>
-  <si>
-    <t>0.00183890129670775</t>
-  </si>
-  <si>
-    <t>0.00489567277977426</t>
-  </si>
-  <si>
-    <t>0.00660407990861991</t>
-  </si>
-  <si>
-    <t>0.0194127194449209</t>
-  </si>
-  <si>
-    <t>0.00249845997647133</t>
-  </si>
-  <si>
-    <t>0.024849945387898</t>
-  </si>
-  <si>
-    <t>0.0643568219475713</t>
-  </si>
-  <si>
-    <t>0.0417706696000246</t>
-  </si>
-  <si>
-    <t>0.132799012615187</t>
-  </si>
-  <si>
-    <t>0.0125872631609779</t>
-  </si>
-  <si>
-    <t>0.00322580990106803</t>
-  </si>
-  <si>
-    <t>0.0253439473426199</t>
-  </si>
-  <si>
-    <t>0.0476605045848975</t>
-  </si>
-  <si>
-    <t>0.00242929624274079</t>
-  </si>
-  <si>
-    <t>0.0241476934266066</t>
-  </si>
-  <si>
-    <t>-0.000944039006339204</t>
-  </si>
-  <si>
-    <t>0.048416935796957</t>
-  </si>
-  <si>
-    <t>0.0824207540229927</t>
-  </si>
-  <si>
-    <t>0.102402524669704</t>
-  </si>
-  <si>
-    <t>0.098295236740592</t>
-  </si>
-  <si>
-    <t>0.0843685309359228</t>
-  </si>
-  <si>
-    <t>0.120082992177329</t>
-  </si>
-  <si>
-    <t>0.0307541119412962</t>
-  </si>
-  <si>
-    <t>0.0966711020213834</t>
-  </si>
-  <si>
-    <t>0.0433582561795323</t>
-  </si>
-  <si>
-    <t>0.16159874897095</t>
-  </si>
-  <si>
-    <t>0.193535567789645</t>
-  </si>
-  <si>
-    <t>0.0440808937825245</t>
-  </si>
-  <si>
-    <t>0.0599035176954794</t>
-  </si>
-  <si>
-    <t>0.0481865186576965</t>
-  </si>
-  <si>
-    <t>0.0515346746533172</t>
-  </si>
-  <si>
-    <t>0.0589830304546872</t>
-  </si>
-  <si>
-    <t>0.126545088250463</t>
-  </si>
-  <si>
-    <t>0.0361858874545202</t>
-  </si>
-  <si>
-    <t>0.0364747156742961</t>
-  </si>
-  <si>
-    <t>0.0525825684485397</t>
-  </si>
-  <si>
-    <t>0.174719564453635</t>
-  </si>
-  <si>
-    <t>0.191531455444172</t>
-  </si>
-  <si>
-    <t>0.194793036373775</t>
-  </si>
-  <si>
-    <t>0.139434814337081</t>
-  </si>
-  <si>
-    <t>0.101934853544993</t>
-  </si>
-  <si>
-    <t>0.0717729453196246</t>
-  </si>
-  <si>
-    <t>0.0163462682543377</t>
-  </si>
-  <si>
-    <t>0.216519073719734</t>
-  </si>
-  <si>
-    <t>0.290468791010985</t>
-  </si>
-  <si>
-    <t>0.0784376605535591</t>
-  </si>
-  <si>
-    <t>0.0619673486628087</t>
-  </si>
-  <si>
-    <t>0.117573581924942</t>
-  </si>
-  <si>
-    <t>0.0796933208454464</t>
-  </si>
-  <si>
-    <t>0.14756384771555</t>
-  </si>
-  <si>
-    <t>0.170291445573853</t>
-  </si>
-  <si>
-    <t>0.0837898685165673</t>
-  </si>
-  <si>
-    <t>0.304700987384813</t>
-  </si>
-  <si>
-    <t>0.116444994903538</t>
-  </si>
-  <si>
-    <t>0.0984691053531692</t>
-  </si>
-  <si>
-    <t>0.150094649148608</t>
-  </si>
-  <si>
-    <t>0.185672828748436</t>
-  </si>
-  <si>
-    <t>0.0738091796122075</t>
-  </si>
-  <si>
-    <t>0.14251897324006</t>
-  </si>
-  <si>
-    <t>0.0329179650667815</t>
-  </si>
-  <si>
-    <t>0.184785548191843</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Catastrophic</t>
-  </si>
-  <si>
-    <t>0.0813953488372093</t>
-  </si>
-  <si>
-    <t>0.0327868852459016</t>
-  </si>
-  <si>
-    <t>0.00826446280991736</t>
-  </si>
-  <si>
-    <t>0.00813008130081301</t>
-  </si>
-  <si>
-    <t>0.00939059375845803</t>
-  </si>
-  <si>
-    <t>0.0428571428571429</t>
-  </si>
-  <si>
-    <t>0.00934579439252337</t>
-  </si>
-  <si>
-    <t>0.0782608695652174</t>
-  </si>
-  <si>
     <t>0.121212121212121</t>
   </si>
   <si>
@@ -1611,7 +1578,7 @@
     <t>0.0129831791137857</t>
   </si>
   <si>
-    <t>-0.00196626134180709</t>
+    <t>-0.00196626134180708</t>
   </si>
   <si>
     <t>0.0214773760453034</t>
@@ -1653,7 +1620,7 @@
     <t>0.00315114573057726</t>
   </si>
   <si>
-    <t>0.00117007298310871</t>
+    <t>0.00117007298310877</t>
   </si>
   <si>
     <t>0.130179854470401</t>
@@ -1671,9 +1638,6 @@
     <t>0.0215271775813797</t>
   </si>
   <si>
-    <t>0.0216961417707244</t>
-  </si>
-  <si>
     <t>0.0789223006900618</t>
   </si>
   <si>
@@ -1722,7 +1686,7 @@
     <t>0.0968488542694227</t>
   </si>
   <si>
-    <t>0.0665974611101787</t>
+    <t>0.0665974611101786</t>
   </si>
   <si>
     <t>Al-Kaim</t>
@@ -1746,787 +1710,772 @@
     <t>Beygee</t>
   </si>
   <si>
-    <t>0.0106382978723404</t>
-  </si>
-  <si>
     <t>0.0056980056980057</t>
   </si>
   <si>
-    <t>-0.00686014496756885</t>
-  </si>
-  <si>
     <t>0.00378618643841113</t>
   </si>
   <si>
-    <t>0.0281367407122497</t>
+    <t>0.00760982495760026</t>
+  </si>
+  <si>
+    <t>0.432432432432432</t>
+  </si>
+  <si>
+    <t>0.378943273590629</t>
+  </si>
+  <si>
+    <t>0.415384615384615</t>
+  </si>
+  <si>
+    <t>0.457446808510638</t>
+  </si>
+  <si>
+    <t>0.426086956521739</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.17741935483871</t>
+  </si>
+  <si>
+    <t>0.099009900990099</t>
+  </si>
+  <si>
+    <t>0.479262320151119</t>
+  </si>
+  <si>
+    <t>0.394736842105263</t>
+  </si>
+  <si>
+    <t>0.276119402985075</t>
+  </si>
+  <si>
+    <t>0.843304843304843</t>
+  </si>
+  <si>
+    <t>0.791666666666667</t>
+  </si>
+  <si>
+    <t>0.109756097560976</t>
+  </si>
+  <si>
+    <t>0.361111111111111</t>
+  </si>
+  <si>
+    <t>0.19672131147541</t>
+  </si>
+  <si>
+    <t>0.504254851020836</t>
+  </si>
+  <si>
+    <t>0.216666666666667</t>
+  </si>
+  <si>
+    <t>0.593941410780277</t>
+  </si>
+  <si>
+    <t>0.131004576978303</t>
+  </si>
+  <si>
+    <t>0.406779661016949</t>
+  </si>
+  <si>
+    <t>0.0822911515766006</t>
+  </si>
+  <si>
+    <t>0.317460317460317</t>
+  </si>
+  <si>
+    <t>0.379310344827586</t>
+  </si>
+  <si>
+    <t>0.124463519313305</t>
+  </si>
+  <si>
+    <t>0.51402744457649</t>
+  </si>
+  <si>
+    <t>0.337057610228204</t>
+  </si>
+  <si>
+    <t>0.250585963899837</t>
+  </si>
+  <si>
+    <t>0.313482739113541</t>
+  </si>
+  <si>
+    <t>0.372474533747409</t>
+  </si>
+  <si>
+    <t>0.349775804437426</t>
+  </si>
+  <si>
+    <t>0.500333431147521</t>
+  </si>
+  <si>
+    <t>0.087815936819361</t>
+  </si>
+  <si>
+    <t>0.0498821843813543</t>
+  </si>
+  <si>
+    <t>0.379946161411844</t>
+  </si>
+  <si>
+    <t>0.281550253439355</t>
+  </si>
+  <si>
+    <t>0.0915060887000229</t>
+  </si>
+  <si>
+    <t>0.822400199543203</t>
+  </si>
+  <si>
+    <t>0.684924203510825</t>
+  </si>
+  <si>
+    <t>0.0524481166154426</t>
+  </si>
+  <si>
+    <t>0.267073869581386</t>
+  </si>
+  <si>
+    <t>0.11198359913134</t>
+  </si>
+  <si>
+    <t>0.179943998680422</t>
+  </si>
+  <si>
+    <t>0.117476977884562</t>
+  </si>
+  <si>
+    <t>0.128145707914198</t>
+  </si>
+  <si>
+    <t>0.499844246704153</t>
+  </si>
+  <si>
+    <t>0.0833660048308371</t>
+  </si>
+  <si>
+    <t>0.300294419500952</t>
+  </si>
+  <si>
+    <t>0.0150741993071742</t>
+  </si>
+  <si>
+    <t>0.219831728418591</t>
+  </si>
+  <si>
+    <t>0.273226709210397</t>
+  </si>
+  <si>
+    <t>0.0844111905343674</t>
+  </si>
+  <si>
+    <t>0.376862218945106</t>
+  </si>
+  <si>
+    <t>0.527807254636661</t>
+  </si>
+  <si>
+    <t>0.507300583281421</t>
+  </si>
+  <si>
+    <t>0.51728649165569</t>
+  </si>
+  <si>
+    <t>0.542419083273868</t>
+  </si>
+  <si>
+    <t>0.502398108606053</t>
+  </si>
+  <si>
+    <t>0.649666568852479</t>
+  </si>
+  <si>
+    <t>0.267022772858058</t>
+  </si>
+  <si>
+    <t>0.148137617598844</t>
+  </si>
+  <si>
+    <t>0.578578478890393</t>
+  </si>
+  <si>
+    <t>0.507923430771172</t>
+  </si>
+  <si>
+    <t>0.460732717270126</t>
+  </si>
+  <si>
+    <t>0.864209487066484</t>
+  </si>
+  <si>
+    <t>0.898409129822508</t>
+  </si>
+  <si>
+    <t>0.167064078506509</t>
+  </si>
+  <si>
+    <t>0.455148352640836</t>
+  </si>
+  <si>
+    <t>0.281459023819479</t>
+  </si>
+  <si>
+    <t>0.828565703361249</t>
+  </si>
+  <si>
+    <t>0.282523022115438</t>
+  </si>
+  <si>
+    <t>0.305187625419136</t>
+  </si>
+  <si>
+    <t>0.688038574856401</t>
+  </si>
+  <si>
+    <t>0.17864314912577</t>
+  </si>
+  <si>
+    <t>0.513264902532947</t>
+  </si>
+  <si>
+    <t>0.149508103846027</t>
+  </si>
+  <si>
+    <t>0.415088906502044</t>
+  </si>
+  <si>
+    <t>0.485393980444775</t>
+  </si>
+  <si>
+    <t>0.164515848092242</t>
+  </si>
+  <si>
+    <t>0.651192670207873</t>
+  </si>
+  <si>
+    <t>0.567567567567568</t>
+  </si>
+  <si>
+    <t>0.60889939994137</t>
+  </si>
+  <si>
+    <t>0.569230769230769</t>
+  </si>
+  <si>
+    <t>0.521276595744681</t>
+  </si>
+  <si>
+    <t>0.530434782608696</t>
+  </si>
+  <si>
+    <t>0.391666666666667</t>
+  </si>
+  <si>
+    <t>0.782258064516129</t>
+  </si>
+  <si>
+    <t>0.831683168316832</t>
+  </si>
+  <si>
+    <t>0.485236767245095</t>
+  </si>
+  <si>
+    <t>0.578947368421053</t>
+  </si>
+  <si>
+    <t>0.67910447761194</t>
+  </si>
+  <si>
+    <t>0.122507122507123</t>
+  </si>
+  <si>
+    <t>0.191666666666667</t>
+  </si>
+  <si>
+    <t>0.780487804878049</t>
+  </si>
+  <si>
+    <t>0.737704918032787</t>
+  </si>
+  <si>
+    <t>0.355439918136005</t>
+  </si>
+  <si>
+    <t>0.738461538461539</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.391606064484296</t>
+  </si>
+  <si>
+    <t>0.751318959487509</t>
+  </si>
+  <si>
+    <t>0.666558327770465</t>
+  </si>
+  <si>
+    <t>0.650793650793651</t>
+  </si>
+  <si>
+    <t>0.551724137931034</t>
+  </si>
+  <si>
+    <t>0.84549356223176</t>
+  </si>
+  <si>
+    <t>0.48597255542351</t>
+  </si>
+  <si>
+    <t>0.472192745363339</t>
+  </si>
+  <si>
+    <t>0.471636789293088</t>
+  </si>
+  <si>
+    <t>0.466833499294661</t>
+  </si>
+  <si>
+    <t>0.43607215586361</t>
+  </si>
+  <si>
+    <t>0.453418988130646</t>
+  </si>
+  <si>
+    <t>0.317939605932571</t>
+  </si>
+  <si>
+    <t>0.690970138933968</t>
+  </si>
+  <si>
+    <t>0.770141397761905</t>
+  </si>
+  <si>
+    <t>0.392613730607062</t>
+  </si>
+  <si>
+    <t>0.475587816516565</t>
+  </si>
+  <si>
+    <t>0.513660299519328</t>
+  </si>
+  <si>
+    <t>0.10536488701062</t>
+  </si>
+  <si>
+    <t>0.0925332536643109</t>
+  </si>
+  <si>
+    <t>0.704602328886952</t>
+  </si>
+  <si>
+    <t>0.515669086110795</t>
+  </si>
+  <si>
+    <t>0.64393698983156</t>
+  </si>
+  <si>
+    <t>0.12960312942655</t>
+  </si>
+  <si>
+    <t>0.647795037516237</t>
+  </si>
+  <si>
+    <t>0.601533976012086</t>
+  </si>
+  <si>
+    <t>0.297839920982506</t>
+  </si>
+  <si>
+    <t>0.691615883867319</t>
+  </si>
+  <si>
+    <t>0.581234377195303</t>
+  </si>
+  <si>
+    <t>0.550809524488132</t>
+  </si>
+  <si>
+    <t>0.442994618760845</t>
+  </si>
+  <si>
+    <t>0.803755213034276</t>
+  </si>
+  <si>
+    <t>0.348807329792127</t>
+  </si>
+  <si>
+    <t>0.662942389771796</t>
+  </si>
+  <si>
+    <t>0.746162010589651</t>
+  </si>
+  <si>
+    <t>0.671628039166877</t>
+  </si>
+  <si>
+    <t>0.606481035625751</t>
+  </si>
+  <si>
+    <t>0.607450577086746</t>
+  </si>
+  <si>
+    <t>0.465393727400763</t>
+  </si>
+  <si>
+    <t>0.87354599009829</t>
+  </si>
+  <si>
+    <t>0.893224938871758</t>
+  </si>
+  <si>
+    <t>0.577859803883127</t>
+  </si>
+  <si>
+    <t>0.68230692032554</t>
+  </si>
+  <si>
+    <t>0.844548655704553</t>
+  </si>
+  <si>
+    <t>0.139649358003625</t>
+  </si>
+  <si>
+    <t>0.290800079669022</t>
+  </si>
+  <si>
+    <t>0.856373280869145</t>
+  </si>
+  <si>
+    <t>0.706553136111427</t>
+  </si>
+  <si>
+    <t>0.831472846234014</t>
+  </si>
+  <si>
+    <t>0.581276706845459</t>
+  </si>
+  <si>
+    <t>0.82912803940684</t>
+  </si>
+  <si>
+    <t>0.798466023987914</t>
+  </si>
+  <si>
+    <t>0.485372207986085</t>
+  </si>
+  <si>
+    <t>0.811022035107699</t>
+  </si>
+  <si>
+    <t>0.751882278345627</t>
+  </si>
+  <si>
+    <t>0.750777777099169</t>
+  </si>
+  <si>
+    <t>0.660453657101224</t>
+  </si>
+  <si>
+    <t>0.887231911429244</t>
+  </si>
+  <si>
+    <t>0.623137781054894</t>
+  </si>
+  <si>
+    <t>0.0121573264680016</t>
+  </si>
+  <si>
+    <t>0.0153846153846154</t>
+  </si>
+  <si>
+    <t>0.0212765957446809</t>
+  </si>
+  <si>
+    <t>0.00869565217391304</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.0403225806451613</t>
+  </si>
+  <si>
+    <t>0.0693069306930693</t>
+  </si>
+  <si>
+    <t>0.0355009126037866</t>
+  </si>
+  <si>
+    <t>0.0263157894736842</t>
+  </si>
+  <si>
+    <t>0.0373134328358209</t>
+  </si>
+  <si>
+    <t>0.0227920227920228</t>
+  </si>
+  <si>
+    <t>0.00833333333333333</t>
+  </si>
+  <si>
+    <t>0.0365853658536585</t>
+  </si>
+  <si>
+    <t>0.0138888888888889</t>
+  </si>
+  <si>
+    <t>0.0491803278688525</t>
+  </si>
+  <si>
+    <t>0.102890502618317</t>
+  </si>
+  <si>
+    <t>0.0144525247354272</t>
+  </si>
+  <si>
+    <t>0.0905203565647601</t>
+  </si>
+  <si>
+    <t>0.177088484233994</t>
+  </si>
+  <si>
+    <t>0.0158730158730159</t>
+  </si>
+  <si>
+    <t>0.0517241379310345</t>
+  </si>
+  <si>
+    <t>0.0257510729613734</t>
+  </si>
+  <si>
+    <t>-0.00853021389318415</t>
+  </si>
+  <si>
+    <t>-0.0100660116791291</t>
+  </si>
+  <si>
+    <t>-0.00333653396573192</t>
+  </si>
+  <si>
+    <t>-0.00563184818850215</t>
+  </si>
+  <si>
+    <t>0.00141857098187702</t>
+  </si>
+  <si>
+    <t>-0.00153059237746368</t>
+  </si>
+  <si>
+    <t>0.0275317026005393</t>
+  </si>
+  <si>
+    <t>0.000859041184038498</t>
+  </si>
+  <si>
+    <t>-0.00641019692413379</t>
+  </si>
+  <si>
+    <t>0.00345770508857401</t>
+  </si>
+  <si>
+    <t>0.0151447457536446</t>
+  </si>
+  <si>
+    <t>-0.0036455053832374</t>
+  </si>
+  <si>
+    <t>0.00216570426665832</t>
+  </si>
+  <si>
+    <t>-0.00902313564489135</t>
+  </si>
+  <si>
+    <t>0.00308438567439566</t>
+  </si>
+  <si>
+    <t>0.000144600501719314</t>
+  </si>
+  <si>
+    <t>-0.0100070837278271</t>
+  </si>
+  <si>
+    <t>0.00317006455474316</t>
+  </si>
+  <si>
+    <t>-0.00941481587087411</t>
+  </si>
+  <si>
+    <t>0.0385400428730616</t>
+  </si>
+  <si>
+    <t>0.0979858918536273</t>
+  </si>
+  <si>
+    <t>-0.0103404008650818</t>
+  </si>
+  <si>
+    <t>0.00330380442295726</t>
+  </si>
+  <si>
+    <t>0.00351912758096046</t>
+  </si>
+  <si>
+    <t>0.0328448668291874</t>
+  </si>
+  <si>
+    <t>0.0408352424483599</t>
+  </si>
+  <si>
+    <t>0.0458897254550936</t>
+  </si>
+  <si>
+    <t>0.0230231525363282</t>
+  </si>
+  <si>
+    <t>0.048581429018123</t>
+  </si>
+  <si>
+    <t>0.0821757536677862</t>
+  </si>
+  <si>
+    <t>0.111082158785599</t>
+  </si>
+  <si>
+    <t>0.0701427840235347</t>
+  </si>
+  <si>
+    <t>0.0590417758715022</t>
+  </si>
+  <si>
+    <t>0.0711691605830678</t>
+  </si>
+  <si>
+    <t>0.030439299830401</t>
+  </si>
+  <si>
+    <t>0.0203121720499041</t>
+  </si>
+  <si>
+    <t>0.0710050274406587</t>
+  </si>
+  <si>
+    <t>0.0368009134226691</t>
+  </si>
+  <si>
+    <t>0.0952762700633092</t>
+  </si>
+  <si>
+    <t>0.205636404734915</t>
+  </si>
+  <si>
+    <t>0.0407763144970578</t>
+  </si>
+  <si>
+    <t>0.0968299354452568</t>
+  </si>
+  <si>
+    <t>0.0383198653417286</t>
+  </si>
+  <si>
+    <t>0.142500670256459</t>
+  </si>
+  <si>
+    <t>0.256191076614361</t>
+  </si>
+  <si>
+    <t>0.0420864326111136</t>
+  </si>
+  <si>
+    <t>0.100144471439112</t>
+  </si>
+  <si>
+    <t>0.0479830183417863</t>
+  </si>
+  <si>
+    <t>0.0347826086956522</t>
+  </si>
+  <si>
+    <t>0.00746268656716418</t>
+  </si>
+  <si>
+    <t>0.0731707317073171</t>
+  </si>
+  <si>
+    <t>0.0374147282248426</t>
+  </si>
+  <si>
+    <t>0.0461538461538462</t>
+  </si>
+  <si>
+    <t>0.027156106969428</t>
+  </si>
+  <si>
+    <t>0.0740620364189405</t>
+  </si>
+  <si>
+    <t>0.00429184549356223</t>
+  </si>
+  <si>
+    <t>0.00650716116232335</t>
+  </si>
+  <si>
+    <t>-0.00539728331252167</t>
+  </si>
+  <si>
+    <t>-0.00557398392012914</t>
+  </si>
+  <si>
+    <t>-0.00364550538323741</t>
+  </si>
+  <si>
+    <t>0.0254271667261093</t>
+  </si>
+  <si>
+    <t>-0.00902313564489139</t>
+  </si>
+  <si>
+    <t>-0.0106750266712152</t>
+  </si>
+  <si>
+    <t>-0.00691204192874789</t>
+  </si>
+  <si>
+    <t>0.00286677039251056</t>
+  </si>
+  <si>
+    <t>-0.00523709825908927</t>
+  </si>
+  <si>
+    <t>0.00603719152074774</t>
+  </si>
+  <si>
+    <t>-0.00324558983813625</t>
+  </si>
+  <si>
+    <t>-0.0112178563670029</t>
+  </si>
+  <si>
+    <t>-0.00300216126433055</t>
+  </si>
+  <si>
+    <t>0.063058056228981</t>
+  </si>
+  <si>
+    <t>0.0220639499791883</t>
+  </si>
+  <si>
+    <t>0.0204993570544575</t>
   </si>
   <si>
     <t>0.00760982495760027</t>
-  </si>
-  <si>
-    <t>0.391891891891892</t>
-  </si>
-  <si>
-    <t>0.378943273590629</t>
-  </si>
-  <si>
-    <t>0.415384615384615</t>
-  </si>
-  <si>
-    <t>0.478723404255319</t>
-  </si>
-  <si>
-    <t>0.365217391304348</t>
-  </si>
-  <si>
-    <t>0.435483870967742</t>
-  </si>
-  <si>
-    <t>0.277227722772277</t>
-  </si>
-  <si>
-    <t>0.479262320151119</t>
-  </si>
-  <si>
-    <t>0.394736842105263</t>
-  </si>
-  <si>
-    <t>0.485074626865672</t>
-  </si>
-  <si>
-    <t>0.809116809116809</t>
-  </si>
-  <si>
-    <t>0.841666666666667</t>
-  </si>
-  <si>
-    <t>0.109756097560976</t>
-  </si>
-  <si>
-    <t>0.513888888888889</t>
-  </si>
-  <si>
-    <t>0.245901639344262</t>
-  </si>
-  <si>
-    <t>0.284865312707155</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.266666666666667</t>
-  </si>
-  <si>
-    <t>0.593941410780277</t>
-  </si>
-  <si>
-    <t>0.140056612634779</t>
-  </si>
-  <si>
-    <t>0.406779661016949</t>
-  </si>
-  <si>
-    <t>0.139894957680221</t>
-  </si>
-  <si>
-    <t>0.476190476190476</t>
-  </si>
-  <si>
-    <t>0.482758620689655</t>
-  </si>
-  <si>
-    <t>0.339055793991416</t>
-  </si>
-  <si>
-    <t>0.51402744457649</t>
-  </si>
-  <si>
-    <t>0.297911043146295</t>
-  </si>
-  <si>
-    <t>0.250585963899837</t>
-  </si>
-  <si>
-    <t>0.313482739113541</t>
-  </si>
-  <si>
-    <t>0.393518964374249</t>
-  </si>
-  <si>
-    <t>-0.0177269193376116</t>
-  </si>
-  <si>
-    <t>0.290914779870999</t>
-  </si>
-  <si>
-    <t>0.441187620591277</t>
-  </si>
-  <si>
-    <t>0.310683567894381</t>
-  </si>
-  <si>
-    <t>0.2035991590506</t>
-  </si>
-  <si>
-    <t>0.379946161411844</t>
-  </si>
-  <si>
-    <t>0.281550253439355</t>
-  </si>
-  <si>
-    <t>0.271879798908121</t>
-  </si>
-  <si>
-    <t>0.783573914671846</t>
-  </si>
-  <si>
-    <t>0.75365440813635</t>
-  </si>
-  <si>
-    <t>0.0524481166154426</t>
-  </si>
-  <si>
-    <t>0.416037008559317</t>
-  </si>
-  <si>
-    <t>0.154107993898699</t>
-  </si>
-  <si>
-    <t>-0.00989970135286455</t>
-  </si>
-  <si>
-    <t>0.117476977884562</t>
-  </si>
-  <si>
-    <t>0.171647365177764</t>
-  </si>
-  <si>
-    <t>0.499844246704153</t>
-  </si>
-  <si>
-    <t>0.087001783013951</t>
-  </si>
-  <si>
-    <t>0.300294419500952</t>
-  </si>
-  <si>
-    <t>0.083391404382256</t>
-  </si>
-  <si>
-    <t>0.371442561828737</t>
-  </si>
-  <si>
-    <t>0.373507614023242</t>
-  </si>
-  <si>
-    <t>0.248897771630366</t>
-  </si>
-  <si>
-    <t>0.376862218945106</t>
-  </si>
-  <si>
-    <t>0.485872740637489</t>
-  </si>
-  <si>
-    <t>0.507300583281421</t>
-  </si>
-  <si>
-    <t>0.51728649165569</t>
-  </si>
-  <si>
-    <t>0.56392784413639</t>
-  </si>
-  <si>
-    <t>0.151060252670945</t>
-  </si>
-  <si>
-    <t>0.439520002737697</t>
-  </si>
-  <si>
-    <t>0.592145712742056</t>
-  </si>
-  <si>
-    <t>0.560284174041103</t>
-  </si>
-  <si>
-    <t>0.350856286493955</t>
-  </si>
-  <si>
-    <t>0.578578478890393</t>
-  </si>
-  <si>
-    <t>0.507923430771172</t>
-  </si>
-  <si>
-    <t>0.698269454823223</t>
-  </si>
-  <si>
-    <t>0.834659703561773</t>
-  </si>
-  <si>
-    <t>0.929678925196984</t>
-  </si>
-  <si>
-    <t>0.167064078506509</t>
-  </si>
-  <si>
-    <t>0.61174076921846</t>
-  </si>
-  <si>
-    <t>0.337695284789826</t>
-  </si>
-  <si>
-    <t>0.579630326767175</t>
-  </si>
-  <si>
-    <t>0.282523022115438</t>
-  </si>
-  <si>
-    <t>0.36168596815557</t>
-  </si>
-  <si>
-    <t>0.688038574856401</t>
-  </si>
-  <si>
-    <t>0.193111442255608</t>
-  </si>
-  <si>
-    <t>0.513264902532947</t>
-  </si>
-  <si>
-    <t>0.196398510978186</t>
-  </si>
-  <si>
-    <t>0.580938390552216</t>
-  </si>
-  <si>
-    <t>0.592009627356069</t>
-  </si>
-  <si>
-    <t>0.429213816352466</t>
-  </si>
-  <si>
-    <t>0.651192670207873</t>
-  </si>
-  <si>
-    <t>0.608108108108108</t>
-  </si>
-  <si>
-    <t>0.60889939994137</t>
-  </si>
-  <si>
-    <t>0.569230769230769</t>
-  </si>
-  <si>
-    <t>0.48936170212766</t>
-  </si>
-  <si>
-    <t>0.933333333333333</t>
-  </si>
-  <si>
-    <t>0.539130434782609</t>
-  </si>
-  <si>
-    <t>0.540322580645161</t>
-  </si>
-  <si>
-    <t>0.673267326732673</t>
-  </si>
-  <si>
-    <t>0.485236767245095</t>
-  </si>
-  <si>
-    <t>0.578947368421053</t>
-  </si>
-  <si>
-    <t>0.156695156695157</t>
-  </si>
-  <si>
-    <t>0.141666666666667</t>
-  </si>
-  <si>
-    <t>0.75609756097561</t>
-  </si>
-  <si>
-    <t>0.458333333333333</t>
-  </si>
-  <si>
-    <t>0.688524590163934</t>
-  </si>
-  <si>
-    <t>0.546768410281053</t>
-  </si>
-  <si>
-    <t>0.723076923076923</t>
-  </si>
-  <si>
-    <t>0.391606064484296</t>
-  </si>
-  <si>
-    <t>0.742266923831033</t>
-  </si>
-  <si>
-    <t>0.625412751982165</t>
-  </si>
-  <si>
-    <t>0.492063492063492</t>
-  </si>
-  <si>
-    <t>0.448275862068966</t>
-  </si>
-  <si>
-    <t>0.648068669527897</t>
-  </si>
-  <si>
-    <t>0.48597255542351</t>
-  </si>
-  <si>
-    <t>0.514127259362511</t>
-  </si>
-  <si>
-    <t>0.471636789293088</t>
-  </si>
-  <si>
-    <t>0.466833499294661</t>
-  </si>
-  <si>
-    <t>0.404099319744223</t>
-  </si>
-  <si>
-    <t>0.848939747329055</t>
-  </si>
-  <si>
-    <t>0.462208219676274</t>
-  </si>
-  <si>
-    <t>0.358486627744138</t>
-  </si>
-  <si>
-    <t>0.419163411984532</t>
-  </si>
-  <si>
-    <t>0.596120634596025</t>
-  </si>
-  <si>
-    <t>0.392613730607062</t>
-  </si>
-  <si>
-    <t>0.475587816516565</t>
-  </si>
-  <si>
-    <t>0.288598248140834</t>
-  </si>
-  <si>
-    <t>0.133988323251132</t>
-  </si>
-  <si>
-    <t>0.057616004403546</t>
-  </si>
-  <si>
-    <t>0.677367014556048</t>
-  </si>
-  <si>
-    <t>0.360784166429314</t>
-  </si>
-  <si>
-    <t>0.589808142709326</t>
-  </si>
-  <si>
-    <t>0.281743177650844</t>
-  </si>
-  <si>
-    <t>0.630758801827201</t>
-  </si>
-  <si>
-    <t>0.547513312880871</t>
-  </si>
-  <si>
-    <t>0.297839920982506</t>
-  </si>
-  <si>
-    <t>0.677989522251711</t>
-  </si>
-  <si>
-    <t>0.523683029277401</t>
-  </si>
-  <si>
-    <t>0.387209825111101</t>
-  </si>
-  <si>
-    <t>0.339546342898776</t>
-  </si>
-  <si>
-    <t>0.561992971240282</t>
-  </si>
-  <si>
-    <t>0.348807329792127</t>
-  </si>
-  <si>
-    <t>0.702088956853705</t>
-  </si>
-  <si>
-    <t>0.746162010589651</t>
-  </si>
-  <si>
-    <t>0.671628039166877</t>
-  </si>
-  <si>
-    <t>0.574624084511096</t>
-  </si>
-  <si>
-    <t>1.01772691933761</t>
-  </si>
-  <si>
-    <t>0.616052649888943</t>
-  </si>
-  <si>
-    <t>0.508180038922528</t>
-  </si>
-  <si>
-    <t>0.661481749305791</t>
-  </si>
-  <si>
-    <t>0.750414018869322</t>
-  </si>
-  <si>
-    <t>0.577859803883127</t>
-  </si>
-  <si>
-    <t>0.68230692032554</t>
-  </si>
-  <si>
-    <t>0.681551005590509</t>
-  </si>
-  <si>
-    <t>0.179401990139181</t>
-  </si>
-  <si>
-    <t>0.225717328929787</t>
-  </si>
-  <si>
-    <t>0.834828107395171</t>
-  </si>
-  <si>
-    <t>0.555882500237352</t>
-  </si>
-  <si>
-    <t>0.787241037618543</t>
-  </si>
-  <si>
-    <t>0.811793642911263</t>
-  </si>
-  <si>
-    <t>0.815395044326646</t>
-  </si>
-  <si>
-    <t>0.752486687119129</t>
-  </si>
-  <si>
-    <t>0.485372207986085</t>
-  </si>
-  <si>
-    <t>0.806544325410354</t>
-  </si>
-  <si>
-    <t>0.727142474686928</t>
-  </si>
-  <si>
-    <t>0.596917159015883</t>
-  </si>
-  <si>
-    <t>0.557005381239155</t>
-  </si>
-  <si>
-    <t>0.734144367815512</t>
-  </si>
-  <si>
-    <t>0.623137781054894</t>
-  </si>
-  <si>
-    <t>0.0121573264680016</t>
-  </si>
-  <si>
-    <t>0.0153846153846154</t>
-  </si>
-  <si>
-    <t>0.0212765957446809</t>
-  </si>
-  <si>
-    <t>0.0608695652173913</t>
-  </si>
-  <si>
-    <t>0.0241935483870968</t>
-  </si>
-  <si>
-    <t>0.0495049504950495</t>
-  </si>
-  <si>
-    <t>0.0355009126037866</t>
-  </si>
-  <si>
-    <t>0.0263157894736842</t>
-  </si>
-  <si>
-    <t>0.0223880597014925</t>
-  </si>
-  <si>
-    <t>0.0227920227920228</t>
-  </si>
-  <si>
-    <t>0.00833333333333333</t>
-  </si>
-  <si>
-    <t>0.0609756097560976</t>
-  </si>
-  <si>
-    <t>0.0138888888888889</t>
-  </si>
-  <si>
-    <t>0.0491803278688525</t>
-  </si>
-  <si>
-    <t>0.130951548786949</t>
-  </si>
-  <si>
-    <t>0.0307692307692308</t>
-  </si>
-  <si>
-    <t>0.0144525247354272</t>
-  </si>
-  <si>
-    <t>0.0905203565647601</t>
-  </si>
-  <si>
-    <t>0.160630253918674</t>
-  </si>
-  <si>
-    <t>0.0158730158730159</t>
-  </si>
-  <si>
-    <t>0.0517241379310345</t>
-  </si>
-  <si>
-    <t>0.00858369098712446</t>
-  </si>
-  <si>
-    <t>-0.00853021389318415</t>
-  </si>
-  <si>
-    <t>-0.0100660116791291</t>
-  </si>
-  <si>
-    <t>-0.00333653396573192</t>
-  </si>
-  <si>
-    <t>0.0239735979609274</t>
-  </si>
-  <si>
-    <t>0.0114844950900759</t>
-  </si>
-  <si>
-    <t>-0.00504051036830156</t>
-  </si>
-  <si>
-    <t>0.0138248144445343</t>
-  </si>
-  <si>
-    <t>0.000859041184038498</t>
-  </si>
-  <si>
-    <t>-0.00641019692413379</t>
-  </si>
-  <si>
-    <t>0.0018575836025791</t>
-  </si>
-  <si>
-    <t>0.0151447457536445</t>
-  </si>
-  <si>
-    <t>-0.0036455053832374</t>
-  </si>
-  <si>
-    <t>0.0171060993310602</t>
-  </si>
-  <si>
-    <t>-0.00902313564489135</t>
-  </si>
-  <si>
-    <t>0.00308438567439566</t>
-  </si>
-  <si>
-    <t>0.0138746159017892</t>
-  </si>
-  <si>
-    <t>-0.00485840868582362</t>
-  </si>
-  <si>
-    <t>0.00317006455474316</t>
-  </si>
-  <si>
-    <t>-0.00941481587087411</t>
-  </si>
-  <si>
-    <t>0.0385400428730616</t>
-  </si>
-  <si>
-    <t>0.0849474719005625</t>
-  </si>
-  <si>
-    <t>-0.0103404008650818</t>
-  </si>
-  <si>
-    <t>0.00330380442295726</t>
-  </si>
-  <si>
-    <t>-0.00321613969429554</t>
-  </si>
-  <si>
-    <t>0.0328448668291874</t>
-  </si>
-  <si>
-    <t>0.0408352424483599</t>
-  </si>
-  <si>
-    <t>0.0458897254550936</t>
-  </si>
-  <si>
-    <t>0.0977655324738552</t>
-  </si>
-  <si>
-    <t>0.0718488382432574</t>
-  </si>
-  <si>
-    <t>0.0534276071424951</t>
-  </si>
-  <si>
-    <t>0.0851850865455647</t>
-  </si>
-  <si>
-    <t>0.0701427840235347</t>
-  </si>
-  <si>
-    <t>0.0590417758715022</t>
-  </si>
-  <si>
-    <t>0.042918535800406</t>
-  </si>
-  <si>
-    <t>0.0304392998304011</t>
-  </si>
-  <si>
-    <t>0.0203121720499041</t>
-  </si>
-  <si>
-    <t>0.104845120181135</t>
-  </si>
-  <si>
-    <t>0.0368009134226691</t>
-  </si>
-  <si>
-    <t>0.0952762700633092</t>
-  </si>
-  <si>
-    <t>0.248028481672109</t>
-  </si>
-  <si>
-    <t>0.0663968702242851</t>
-  </si>
-  <si>
-    <t>0.0968299354452568</t>
-  </si>
-  <si>
-    <t>0.0383198653417286</t>
-  </si>
-  <si>
-    <t>0.142500670256459</t>
-  </si>
-  <si>
-    <t>0.236313035936785</t>
-  </si>
-  <si>
-    <t>0.0420864326111136</t>
-  </si>
-  <si>
-    <t>0.100144471439112</t>
-  </si>
-  <si>
-    <t>0.0203835216685445</t>
-  </si>
-  <si>
-    <t>0.0347826086956522</t>
-  </si>
-  <si>
-    <t>0.00746268656716418</t>
-  </si>
-  <si>
-    <t>0.0731707317073171</t>
-  </si>
-  <si>
-    <t>0.0374147282248426</t>
-  </si>
-  <si>
-    <t>0.0461538461538462</t>
-  </si>
-  <si>
-    <t>0.027156106969428</t>
-  </si>
-  <si>
-    <t>0.0740620364189405</t>
-  </si>
-  <si>
-    <t>0.00429184549356223</t>
-  </si>
-  <si>
-    <t>0.00650716116232335</t>
-  </si>
-  <si>
-    <t>-0.00539728331252167</t>
-  </si>
-  <si>
-    <t>-0.00557398392012914</t>
-  </si>
-  <si>
-    <t>-0.00364550538323741</t>
-  </si>
-  <si>
-    <t>0.0254271667261093</t>
-  </si>
-  <si>
-    <t>-0.00902313564489139</t>
-  </si>
-  <si>
-    <t>-0.0106750266712152</t>
-  </si>
-  <si>
-    <t>-0.00691204192874789</t>
-  </si>
-  <si>
-    <t>0.00286677039251056</t>
-  </si>
-  <si>
-    <t>-0.00523709825908927</t>
-  </si>
-  <si>
-    <t>0.00603719152074774</t>
-  </si>
-  <si>
-    <t>-0.00324558983813623</t>
-  </si>
-  <si>
-    <t>-0.0112178563670029</t>
-  </si>
-  <si>
-    <t>-0.00300216126433055</t>
-  </si>
-  <si>
-    <t>0.063058056228981</t>
-  </si>
-  <si>
-    <t>0.0220639499791883</t>
-  </si>
-  <si>
-    <t>0.0204993570544575</t>
   </si>
   <si>
     <t>0.120914296688525</t>
@@ -2727,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2736,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -2745,7 +2694,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -2754,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="P3" t="s">
         <v>17</v>
@@ -2780,7 +2729,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2789,7 +2738,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -2798,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -2807,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P4" t="s">
         <v>17</v>
@@ -2886,31 +2835,31 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="N6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O6" t="s">
         <v>81</v>
@@ -2939,31 +2888,31 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="N7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="O7" t="s">
         <v>81</v>
@@ -2992,22 +2941,22 @@
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L8" t="s">
         <v>81</v>
@@ -3045,22 +2994,22 @@
         <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L9" t="s">
         <v>81</v>
@@ -3098,31 +3047,31 @@
         <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N10" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -3151,31 +3100,31 @@
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="J11" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="K11" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L11" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M11" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="O11" t="s">
         <v>81</v>
@@ -3204,31 +3153,31 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K12" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="N12" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="O12" t="s">
         <v>81</v>
@@ -3257,40 +3206,40 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I13" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K13" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L13" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M13" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="N13" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="O13" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="P13" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="Q13" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
@@ -3310,40 +3259,40 @@
         <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J14" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K14" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M14" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="N14" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P14" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15">
@@ -3363,40 +3312,40 @@
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N15" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="O15" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="P15" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="Q15" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16">
@@ -3416,22 +3365,22 @@
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="K16" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="L16" t="s">
         <v>81</v>
@@ -3469,40 +3418,40 @@
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M17" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="N17" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="O17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P17" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q17" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18">
@@ -3522,31 +3471,31 @@
         <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K18" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M18" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N18" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O18" t="s">
         <v>81</v>
@@ -3575,31 +3524,31 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J19" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="K19" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M19" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="N19" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="O19" t="s">
         <v>81</v>
@@ -3628,40 +3577,40 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L20" t="s">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="M20" t="s">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="N20" t="s">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="O20" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P20" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="Q20" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21">
@@ -3681,40 +3630,40 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I21" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J21" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K21" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L21" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M21" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="N21" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O21" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="P21" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="Q21" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22">
@@ -3734,40 +3683,40 @@
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N22" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="O22" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="P22" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="Q22" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23">
@@ -3781,46 +3730,46 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L23" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="M23" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="N23" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="O23" t="s">
         <v>82</v>
       </c>
       <c r="P23" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -3840,40 +3789,40 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M24" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="N24" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="O24" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="P24" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="Q24" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25">
@@ -3884,40 +3833,40 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H25" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I25" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L25" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="N25" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="O25" t="s">
         <v>81</v>
@@ -3946,31 +3895,31 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L26" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M26" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N26" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="O26" t="s">
         <v>81</v>
@@ -3999,40 +3948,40 @@
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K27" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="L27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M27" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N27" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="O27" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
       <c r="P27" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="Q27" t="s">
-        <v>552</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28">
@@ -4052,31 +4001,31 @@
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H28" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L28" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M28" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="N28" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="O28" t="s">
         <v>81</v>
@@ -4105,40 +4054,40 @@
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L29" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M29" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="N29" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O29" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P29" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="Q29" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30">
@@ -4158,40 +4107,40 @@
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L30" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M30" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N30" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="O30" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P30" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="Q30" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31">
@@ -4211,40 +4160,40 @@
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M31" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="N31" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="O31" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="P31" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="Q31" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32">
@@ -4264,40 +4213,40 @@
         <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L32" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M32" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="N32" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="O32" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="P32" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="Q32" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33">
@@ -4308,49 +4257,49 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" t="s">
         <v>87</v>
       </c>
-      <c r="E33" t="s">
-        <v>90</v>
-      </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M33" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="N33" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="O33" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="P33" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="Q33" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34">
@@ -4370,31 +4319,31 @@
         <v>81</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J34" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="M34" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="N34" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="O34" t="s">
         <v>81</v>
@@ -4423,40 +4372,40 @@
         <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M35" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N35" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="O35" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="P35" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="Q35" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36">
@@ -4476,40 +4425,40 @@
         <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M36" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="N36" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="O36" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="P36" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="Q36" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37">
@@ -4529,40 +4478,40 @@
         <v>81</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s">
         <v>375</v>
       </c>
       <c r="M37" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N37" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O37" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P37" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="Q37" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38">
@@ -4582,40 +4531,40 @@
         <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="N38" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="O38" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="P38" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="Q38" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39">
@@ -4635,31 +4584,31 @@
         <v>81</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="N39" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="O39" t="s">
         <v>81</v>
@@ -4688,40 +4637,40 @@
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I40" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M40" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="N40" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="O40" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="P40" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q40" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41">
@@ -4741,40 +4690,40 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H41" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J41" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M41" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="N41" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="O41" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="P41" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="Q41" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42">
@@ -4794,40 +4743,40 @@
         <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I42" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J42" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="N42" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="O42" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="P42" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="Q42" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43">
@@ -4847,40 +4796,40 @@
         <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J43" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M43" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="N43" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="O43" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="P43" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="Q43" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44">
@@ -4900,40 +4849,40 @@
         <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I44" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J44" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N44" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="O44" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="P44" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="Q44" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45">
@@ -4953,40 +4902,40 @@
         <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H45" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I45" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J45" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="N45" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="O45" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="P45" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="Q45" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46">
@@ -5006,31 +4955,31 @@
         <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I46" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J46" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N46" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="O46" t="s">
         <v>81</v>
@@ -5059,40 +5008,40 @@
         <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="N47" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="O47" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="P47" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="Q47" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48">
@@ -5112,31 +5061,31 @@
         <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H48" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M48" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="N48" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="O48" t="s">
         <v>81</v>
@@ -5165,31 +5114,31 @@
         <v>81</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I49" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J49" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>132</v>
       </c>
       <c r="M49" t="s">
-        <v>452</v>
+        <v>179</v>
       </c>
       <c r="N49" t="s">
-        <v>496</v>
+        <v>226</v>
       </c>
       <c r="O49" t="s">
         <v>81</v>
@@ -5218,40 +5167,40 @@
         <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H50" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="J50" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M50" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="O50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P50" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="Q50" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51">
@@ -5271,40 +5220,40 @@
         <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I51" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="J51" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K51" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N51" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="O51" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="P51" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="Q51" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52">
@@ -5324,31 +5273,31 @@
         <v>81</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="H52" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J52" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K52" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="L52" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N52" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="O52" t="s">
         <v>81</v>
@@ -5377,31 +5326,31 @@
         <v>81</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H53" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I53" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J53" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K53" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="N53" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="O53" t="s">
         <v>81</v>
@@ -5430,31 +5379,31 @@
         <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="I54" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="J54" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N54" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="O54" t="s">
         <v>81</v>
@@ -5602,7 +5551,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -5611,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -5620,7 +5569,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -5629,7 +5578,7 @@
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="P3" t="s">
         <v>17</v>
@@ -5655,7 +5604,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -5664,7 +5613,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -5673,7 +5622,7 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -5682,7 +5631,7 @@
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P4" t="s">
         <v>17</v>
@@ -5749,7 +5698,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -5761,22 +5710,22 @@
         <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="G6" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="H6" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="I6" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="J6" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="K6" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="L6" t="s">
         <v>81</v>
@@ -5814,31 +5763,31 @@
         <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="H7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="I7" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="J7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="L7" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="M7" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="N7" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="O7" t="s">
         <v>81</v>
@@ -5867,31 +5816,31 @@
         <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="G8" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="H8" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="I8" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="J8" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="K8" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="L8" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="M8" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="N8" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -5908,43 +5857,43 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
         <v>571</v>
       </c>
-      <c r="C9" t="s">
-        <v>577</v>
-      </c>
-      <c r="D9" t="s">
-        <v>579</v>
-      </c>
-      <c r="E9" t="s">
-        <v>581</v>
-      </c>
-      <c r="F9" t="s">
-        <v>586</v>
-      </c>
       <c r="G9" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="H9" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="I9" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="J9" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="K9" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="L9" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="M9" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="N9" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="O9" t="s">
         <v>81</v>
@@ -5973,22 +5922,22 @@
         <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>613</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>641</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>669</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>693</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>720</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -6026,40 +5975,40 @@
         <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="G11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="H11" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="I11" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="J11" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="K11" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="L11" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="M11" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="N11" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="O11" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="P11" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="Q11" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12">
@@ -6079,40 +6028,40 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>573</v>
       </c>
       <c r="G12" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="H12" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>653</v>
       </c>
       <c r="J12" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="K12" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="L12" t="s">
-        <v>399</v>
+        <v>729</v>
       </c>
       <c r="M12" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="N12" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="O12" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="P12" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="Q12" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13">
@@ -6132,31 +6081,31 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G13" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="H13" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="I13" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="J13" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="K13" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="L13" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="M13" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="N13" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="O13" t="s">
         <v>81</v>
@@ -6173,7 +6122,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
@@ -6185,31 +6134,31 @@
         <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G14" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="H14" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="I14" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="J14" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="K14" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="L14" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="M14" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="N14" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="O14" t="s">
         <v>81</v>
@@ -6238,31 +6187,31 @@
         <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G15" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="H15" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="I15" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="J15" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="K15" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="L15" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="M15" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="N15" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="O15" t="s">
         <v>81</v>
@@ -6279,7 +6228,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -6291,31 +6240,31 @@
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G16" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="H16" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="I16" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="J16" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="K16" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="L16" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="M16" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="N16" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="O16" t="s">
         <v>81</v>
@@ -6344,40 +6293,40 @@
         <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G17" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="I17" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="J17" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="K17" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="L17" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="M17" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="N17" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="O17" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="P17" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="Q17" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18">
@@ -6388,49 +6337,49 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="D18" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="E18" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="F18" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G18" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="H18" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="I18" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="J18" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="K18" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="L18" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="M18" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="N18" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="O18" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="P18" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="Q18" t="s">
-        <v>582</v>
+        <v>820</v>
       </c>
     </row>
     <row r="19">
@@ -6450,40 +6399,40 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G19" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="H19" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="I19" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="J19" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="K19" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="L19" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="M19" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="N19" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="O19" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="P19" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="Q19" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20">
@@ -6503,40 +6452,40 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G20" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="H20" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="I20" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="J20" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="K20" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="L20" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="M20" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="N20" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="O20" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="P20" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="Q20" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21">
@@ -6556,40 +6505,40 @@
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G21" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="H21" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="I21" t="s">
-        <v>678</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="K21" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="L21" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="M21" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="N21" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="O21" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="P21" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="Q21" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22">
@@ -6609,40 +6558,40 @@
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G22" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="H22" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="I22" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="J22" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="K22" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="L22" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="M22" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="N22" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="O22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P22" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="Q22" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="23">
@@ -6662,40 +6611,40 @@
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G23" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="H23" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="I23" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="J23" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="K23" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="L23" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="M23" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="N23" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="O23" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="P23" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="Q23" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24">
@@ -6715,40 +6664,40 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>599</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="H24" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="I24" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="J24" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="K24" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="L24" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="M24" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="N24" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="O24" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="P24" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="Q24" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25">
@@ -6768,40 +6717,40 @@
         <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G25" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="H25" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>665</v>
       </c>
       <c r="J25" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K25" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="L25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M25" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="N25" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="O25" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="P25" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="Q25" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26">
@@ -6809,7 +6758,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
@@ -6821,31 +6770,31 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G26" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="H26" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="I26" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="J26" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="K26" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="L26" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="M26" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="N26" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="O26" t="s">
         <v>81</v>
@@ -6862,7 +6811,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
@@ -6874,40 +6823,40 @@
         <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="G27" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="H27" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="I27" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="J27" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="K27" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="L27" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="M27" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="N27" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="O27" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="P27" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="Q27" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28">
@@ -6927,22 +6876,22 @@
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="G28" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="H28" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s">
         <v>81</v>
@@ -6968,7 +6917,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
@@ -6980,40 +6929,40 @@
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G29" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="H29" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="I29" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="J29" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="K29" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="L29" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="M29" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="N29" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="O29" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="P29" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="Q29" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="30">
@@ -7033,40 +6982,40 @@
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G30" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="H30" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="I30" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="J30" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="K30" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="L30" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="M30" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="N30" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="O30" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="P30" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="Q30" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31">
@@ -7086,40 +7035,40 @@
         <v>81</v>
       </c>
       <c r="F31" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G31" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="H31" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="I31" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="J31" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="K31" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="L31" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="M31" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="N31" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="O31" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="P31" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="Q31" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32">
@@ -7139,40 +7088,40 @@
         <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G32" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H32" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="I32" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="J32" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="K32" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="L32" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="M32" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="N32" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="O32" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="P32" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="Q32" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33">
@@ -7192,22 +7141,22 @@
         <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G33" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="H33" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="I33" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="J33" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="K33" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="L33" t="s">
         <v>81</v>
